--- a/documents/01. Flota.xlsx
+++ b/documents/01. Flota.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proyecto_final\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\♥ Proyecto\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -311,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -331,14 +331,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -374,9 +374,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3118,8 +3115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:J12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3201,31 +3198,31 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3257,7 +3254,7 @@
       <c r="J13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="13" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3287,7 +3284,7 @@
         <v>17</v>
       </c>
       <c r="J14" s="5"/>
-      <c r="K14" s="12"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
@@ -3315,7 +3312,7 @@
         <v>17</v>
       </c>
       <c r="J15" s="5"/>
-      <c r="K15" s="12"/>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
@@ -3343,7 +3340,7 @@
         <v>17</v>
       </c>
       <c r="J16" s="5"/>
-      <c r="K16" s="12"/>
+      <c r="K16" s="13"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
@@ -3371,7 +3368,7 @@
         <v>17</v>
       </c>
       <c r="J17" s="5"/>
-      <c r="K17" s="12"/>
+      <c r="K17" s="13"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
@@ -3384,13 +3381,13 @@
         <v>6</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3404,29 +3401,29 @@
         <v>14</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L21" s="13"/>
+      <c r="L21" s="11"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
       <c r="K23" s="9"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -3436,16 +3433,15 @@
       <c r="K25" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="K13:K17"/>
-    <mergeCell ref="K21:L22"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="B2:J4"/>
     <mergeCell ref="I10:J10"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I17 I21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I17 G21">
       <formula1>"Cataluña, Andalucía, CLM, etc"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D17 D21">
@@ -3457,7 +3453,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13:F17 F21">
       <formula1>"Coordinación, UM, Técnico, Dirección"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G17 G21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G17 I21">
       <formula1>"Ayto. BCN, DIBA, Gob. Vasco, IMAS, etc"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13:H17 H21">
@@ -3502,13 +3498,13 @@
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>6</xdr:col>
                     <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>6</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
@@ -3610,11 +3606,11 @@
       <c r="J6" s="16"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">

--- a/documents/01. Flota.xlsx
+++ b/documents/01. Flota.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\♥ Proyecto\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proyecto_final\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -575,13 +575,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>66675</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
           <xdr:colOff>1085850</xdr:colOff>
-          <xdr:row>23</xdr:row>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -640,15 +640,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:colOff>1257300</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>1104900</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3113,10 +3113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L25"/>
+  <dimension ref="B2:L26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3198,9 +3198,6 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
@@ -3214,25 +3211,17 @@
         <v>6</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
+    <row r="13" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="3"/>
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
@@ -3243,92 +3232,63 @@
         <v>14</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="11"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="13"/>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>15</v>
@@ -3339,24 +3299,28 @@
       <c r="I16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="13"/>
+      <c r="J16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>21</v>
@@ -3370,96 +3334,136 @@
       <c r="J17" s="5"/>
       <c r="K17" s="13"/>
     </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="13"/>
+    </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="B20" s="3">
         <v>5</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="4" t="s">
+      <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="F20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="13"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="K23" s="9"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
       <c r="K24" s="9"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K25" s="9"/>
     </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K26" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="K16:K20"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="B2:J4"/>
     <mergeCell ref="I10:J10"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I17 G21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I16:I20 G13">
       <formula1>"Cataluña, Andalucía, CLM, etc"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D17 D21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D20 D13">
       <formula1>"Furgoneta, 4x4, Turismo, moto"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E17 E21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:E20 E13">
       <formula1>"Activo, Taller, Baja, Pendiente"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13:F17 F21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F16:F20 F13">
       <formula1>"Coordinación, UM, Técnico, Dirección"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G17 I21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G20 I13">
       <formula1>"Ayto. BCN, DIBA, Gob. Vasco, IMAS, etc"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13:H17 H21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16:H20 H13">
       <formula1>"Barcelona, Girona, Lleida, Reus, Bizkaia, Toledo, etc"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J13:J17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J16:J20">
       <formula1>"Editar, Imprimir, Archivar, Eliminar"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3478,13 +3482,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>66675</xdr:colOff>
-                    <xdr:row>21</xdr:row>
+                    <xdr:row>22</xdr:row>
                     <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>1085850</xdr:colOff>
-                    <xdr:row>23</xdr:row>
+                    <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3498,16 +3502,16 @@
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>85725</xdr:colOff>
-                    <xdr:row>19</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>1257300</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>1104900</xdr:colOff>
-                    <xdr:row>21</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
